--- a/biology/Zoologie/Cephea_cephea/Cephea_cephea.xlsx
+++ b/biology/Zoologie/Cephea_cephea/Cephea_cephea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Céphée (Cephea cephea) est une espèce de méduses de la famille des Cepheidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une grosse méduse charnue et variablement translucide, composée d'un disque bleu surmonté d'un organe parfois rosâtre ou violacé composé d'une trentaine de boursouflures, et à l'opposé de bras buccaux courts et charnus pourvus d'excroissances en forme de chou-fleur (parfois brunâtres ou orangés), d'où descendent des filaments fins, simples et translucides[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une grosse méduse charnue et variablement translucide, composée d'un disque bleu surmonté d'un organe parfois rosâtre ou violacé composé d'une trentaine de boursouflures, et à l'opposé de bras buccaux courts et charnus pourvus d'excroissances en forme de chou-fleur (parfois brunâtres ou orangés), d'où descendent des filaments fins, simples et translucides.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre de la surface à plusieurs dizaines de mètres de profondeur dans tout l'Indo-Pacifique tropical, de la Mer Rouge aux Tuamotu[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre de la surface à plusieurs dizaines de mètres de profondeur dans tout l'Indo-Pacifique tropical, de la Mer Rouge aux Tuamotu.
 </t>
         </is>
       </c>
